--- a/Resources/BooksDB.xlsx
+++ b/Resources/BooksDB.xlsx
@@ -28,10 +28,10 @@
     <t>Breve Descripción</t>
   </si>
   <si>
-    <t>Año Inicio</t>
-  </si>
-  <si>
-    <t>Año Fin</t>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>End Date</t>
   </si>
   <si>
     <t>Continente</t>
@@ -462,12 +462,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -713,10 +716,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -727,843 +730,843 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>-200000.0</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="4">
         <v>-10000.0</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="H2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <v>-10000.0</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="4">
         <v>-5000.0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <v>-10000.0</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="4">
         <v>-4000.0</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <v>-5000.0</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="4">
         <v>-600.0</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="H5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <v>-3500.0</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="4">
         <v>-1200.0</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>-3000.0</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="4">
         <v>-30.0</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>-1200.0</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>-30.0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="2" t="s">
+      <c r="H8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>-753.0</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>476.0</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="2" t="s">
+      <c r="H9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>-2500.0</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>500.0</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <v>-2000.0</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="4">
         <v>1000.0</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>-1200.0</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>1521.0</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>-1000.0</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>1533.0</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>476.0</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>1000.0</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="2" t="s">
+      <c r="H14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <v>1100.0</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="4">
         <v>1300.0</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="H15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <v>1000.0</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="4">
         <v>1300.0</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2" t="s">
+      <c r="H16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <v>1000.0</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="4">
         <v>1300.0</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="2" t="s">
+      <c r="H17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <v>1300.0</v>
       </c>
-      <c r="G18" s="3">
+      <c r="G18" s="4">
         <v>1500.0</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="2" t="s">
+      <c r="H18" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <v>1988.0</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="4">
         <v>1988.0</v>
       </c>
-      <c r="H19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="2" t="s">
+      <c r="H19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <v>1400.0</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="4">
         <v>1900.0</v>
       </c>
-      <c r="H20" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I20" s="2" t="s">
+      <c r="H20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <v>2000.0</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="4">
         <v>2000.0</v>
       </c>
-      <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I21" s="2" t="s">
+      <c r="H21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <v>1500.0</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="4">
         <v>1600.0</v>
       </c>
-      <c r="H22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="2" t="s">
+      <c r="H22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <v>1500.0</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="4">
         <v>1700.0</v>
       </c>
-      <c r="H23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="H23" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <v>1500.0</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="4">
         <v>2000.0</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <v>2000.0</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="4">
         <v>2000.0</v>
       </c>
-      <c r="H25" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="2" t="s">
+      <c r="H25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <v>1700.0</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26" s="4">
         <v>1800.0</v>
       </c>
-      <c r="H26" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I26" s="2" t="s">
+      <c r="H26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <v>1700.0</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="4">
         <v>1900.0</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="2" t="s">
+      <c r="H27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <v>1800.0</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="4">
         <v>1900.0</v>
       </c>
-      <c r="H28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I28" s="2" t="s">
+      <c r="H28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <v>2000.0</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="4">
         <v>2000.0</v>
       </c>
-      <c r="H29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="H29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <v>2000.0</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="4">
         <v>2000.0</v>
       </c>
-      <c r="H30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I30" s="2" t="s">
+      <c r="H30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>106</v>
       </c>
     </row>
